--- a/Resourcen/SmartphoneDatenbank 1.xlsx
+++ b/Resourcen/SmartphoneDatenbank 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\Selfphone\Informationen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Python\DjangoGFN_SelfPhone\Resourcen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D6F3AD-52F9-4A50-9DCD-492961593AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE7C404-B6B3-416B-A0FE-C51E21DFB7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5685" yWindow="-16320" windowWidth="38640" windowHeight="15720" xr2:uid="{0D4684AD-F4EA-4C74-859F-92CFF1B0A440}"/>
+    <workbookView xWindow="25490" yWindow="-11010" windowWidth="25820" windowHeight="10300" xr2:uid="{0D4684AD-F4EA-4C74-859F-92CFF1B0A440}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -749,20 +749,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A9B581-CB09-49B0-9358-C1E7ADDA1CF2}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5546875" defaultRowHeight="117.6" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.54296875" defaultRowHeight="117.65" customHeight="1"/>
   <cols>
-    <col min="7" max="7" width="17.5546875" style="19"/>
-    <col min="9" max="9" width="17.5546875" style="9"/>
-    <col min="14" max="14" width="69.88671875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" style="19"/>
+    <col min="9" max="9" width="17.54296875" style="9"/>
+    <col min="14" max="14" width="69.90625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="117.6" customHeight="1">
+    <row r="1" spans="1:15" ht="117.65" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -809,7 +809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="117.6" customHeight="1">
+    <row r="2" spans="1:15" ht="117.65" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -820,7 +820,7 @@
         <v>6.8</v>
       </c>
       <c r="D2" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E2" s="4">
         <v>12</v>
@@ -856,7 +856,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="117.6" customHeight="1">
+    <row r="3" spans="1:15" ht="117.65" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -903,7 +903,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="117.6" customHeight="1">
+    <row r="4" spans="1:15" ht="117.65" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -950,7 +950,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="117.6" customHeight="1">
+    <row r="5" spans="1:15" ht="117.65" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -997,7 +997,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="117.6" customHeight="1">
+    <row r="6" spans="1:15" ht="117.65" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="117.6" customHeight="1">
+    <row r="7" spans="1:15" ht="117.65" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="117.6" customHeight="1">
+    <row r="8" spans="1:15" ht="117.65" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="117.6" customHeight="1">
+    <row r="9" spans="1:15" ht="117.65" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="117.6" customHeight="1">
+    <row r="10" spans="1:15" ht="117.65" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="117.6" customHeight="1">
+    <row r="11" spans="1:15" ht="117.65" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="117.6" customHeight="1">
+    <row r="12" spans="1:15" ht="117.65" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>56</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="117.6" customHeight="1">
+    <row r="13" spans="1:15" ht="117.65" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>56</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="117.6" customHeight="1">
+    <row r="14" spans="1:15" ht="117.65" customHeight="1">
       <c r="A14" s="16" t="s">
         <v>56</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="117.6" customHeight="1">
+    <row r="15" spans="1:15" ht="117.65" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>56</v>
       </c>
@@ -1463,9 +1463,9 @@
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:2">
@@ -1473,7 +1473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="118.2" customHeight="1">
+    <row r="5" spans="2:2" ht="118.25" customHeight="1">
       <c r="B5" s="25" t="s">
         <v>51</v>
       </c>
